--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,13 +40,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>warning</t>
   </si>
   <si>
     <t>fraud</t>
@@ -55,30 +52,12 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -91,148 +70,160 @@
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -590,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7077922077922078</v>
+        <v>0.32</v>
       </c>
       <c r="C7">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.2829457364341085</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5238095238095238</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.463519313304721</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4166666666666667</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,731 +1118,539 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>350</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8046875</v>
+      </c>
+      <c r="L12">
+        <v>103</v>
+      </c>
+      <c r="M12">
+        <v>103</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L13">
+        <v>95</v>
+      </c>
+      <c r="M13">
+        <v>95</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>21</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>39</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="L18">
+        <v>102</v>
+      </c>
+      <c r="M18">
+        <v>102</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>75</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.6875</v>
+      </c>
+      <c r="L21">
+        <v>110</v>
+      </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>16</v>
       </c>
-      <c r="J13" s="1" t="s">
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.6151832460732984</v>
+      </c>
+      <c r="L23">
+        <v>235</v>
+      </c>
+      <c r="M23">
+        <v>236</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L24">
+        <v>57</v>
+      </c>
+      <c r="M24">
+        <v>57</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>37</v>
       </c>
-      <c r="K13">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L13">
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L26">
+        <v>37</v>
+      </c>
+      <c r="M26">
+        <v>37</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L28">
+        <v>48</v>
+      </c>
+      <c r="M28">
+        <v>48</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.5323529411764706</v>
+      </c>
+      <c r="L29">
+        <v>181</v>
+      </c>
+      <c r="M29">
+        <v>181</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.525</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>21</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>22</v>
       </c>
-      <c r="M13">
-        <v>22</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>19</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L14">
-        <v>41</v>
-      </c>
-      <c r="M14">
-        <v>41</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>26</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.8</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L16">
-        <v>19</v>
-      </c>
-      <c r="M16">
-        <v>19</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2875</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>57</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>92</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L18">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>168</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L19">
-        <v>43</v>
-      </c>
-      <c r="M19">
-        <v>43</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.009529860228716646</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>0.61</v>
-      </c>
-      <c r="F20">
-        <v>0.39</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1559</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L20">
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L22">
-        <v>28</v>
-      </c>
-      <c r="M22">
-        <v>28</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.68</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>21</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.6291079812206573</v>
-      </c>
-      <c r="L25">
-        <v>134</v>
-      </c>
-      <c r="M25">
-        <v>134</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0.6164383561643836</v>
-      </c>
-      <c r="L26">
-        <v>45</v>
-      </c>
-      <c r="M26">
-        <v>45</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L27">
-        <v>16</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>0.6</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L29">
-        <v>17</v>
-      </c>
-      <c r="M29">
-        <v>17</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.5625</v>
-      </c>
-      <c r="L30">
-        <v>81</v>
-      </c>
-      <c r="M30">
-        <v>81</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K32">
-        <v>0.5038759689922481</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L32">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1863,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1889,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1915,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4857142857142857</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1941,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4565217391304348</v>
+        <v>0.453125</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1967,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.4324324324324325</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1993,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3125</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2019,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.2894736842105263</v>
+        <v>0.3</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2045,47 +1844,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.08585858585858586</v>
+        <v>0.1175059952038369</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>181</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.08048780487804878</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2097,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>377</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.07333333333333333</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2123,73 +1922,73 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>139</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.0625</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>195</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.04777070063694268</v>
+        <v>0.05823068309070549</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>299</v>
+        <v>841</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.04460093896713615</v>
+        <v>0.05349794238683128</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2201,111 +2000,215 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>407</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.03828828828828829</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>427</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.03756708407871199</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N47">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1076</v>
+        <v>861</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.01862556197816313</v>
+        <v>0.03937823834196891</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N48">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.1899999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1528</v>
+        <v>927</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.0145385587863464</v>
+        <v>0.03891233005157056</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="N49">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="O49">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1559</v>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50">
+        <v>0.03352601156069364</v>
+      </c>
+      <c r="L50">
+        <v>29</v>
+      </c>
+      <c r="M50">
+        <v>31</v>
+      </c>
+      <c r="N50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51">
+        <v>0.03099773974814336</v>
+      </c>
+      <c r="L51">
+        <v>96</v>
+      </c>
+      <c r="M51">
+        <v>106</v>
+      </c>
+      <c r="N51">
+        <v>0.91</v>
+      </c>
+      <c r="O51">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52">
+        <v>0.02074330164217805</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>28</v>
+      </c>
+      <c r="N52">
+        <v>0.86</v>
+      </c>
+      <c r="O52">
+        <v>0.14</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53">
+        <v>0.02036979003447195</v>
+      </c>
+      <c r="L53">
+        <v>65</v>
+      </c>
+      <c r="M53">
+        <v>75</v>
+      </c>
+      <c r="N53">
+        <v>0.87</v>
+      </c>
+      <c r="O53">
+        <v>0.13</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3126</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,18 @@
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,151 +70,157 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
   <si>
     <t>prices</t>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -700,37 +703,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6438356164383562</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C6">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D6">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>104</v>
+        <v>363</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.32</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2829457364341085</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C8">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2328042328042328</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8214285714285714</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1879194630872483</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,87 +1053,63 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.119047619047619</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>222</v>
+        <v>348</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8125</v>
+      </c>
+      <c r="L11">
+        <v>104</v>
+      </c>
+      <c r="M11">
+        <v>104</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L11">
-        <v>29</v>
-      </c>
-      <c r="M11">
-        <v>29</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.06166219839142091</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>350</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,21 +1121,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L13">
         <v>29</v>
       </c>
-      <c r="K13">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L13">
-        <v>95</v>
-      </c>
       <c r="M13">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,21 +1147,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1246,12 +1225,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>0.75</v>
@@ -1277,16 +1256,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7183098591549296</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L18">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="M18">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1298,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.69375</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1324,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1350,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1376,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1402,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6151832460732984</v>
+        <v>0.66</v>
       </c>
       <c r="L23">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,24 +1404,24 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1454,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1480,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5873015873015873</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1506,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5757575757575758</v>
+        <v>0.5691906005221932</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1532,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5393258426966292</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1558,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5323529411764706</v>
+        <v>0.55</v>
       </c>
       <c r="L29">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1584,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.525</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1610,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5111111111111111</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1636,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4923076923076923</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1662,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.488135593220339</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L33">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1688,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.4871794871794872</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1714,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.4651162790697674</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1740,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.453125</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1766,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.4520547945205479</v>
+        <v>0.390625</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1792,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.4351464435146444</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L38">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1818,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1844,47 +1823,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.1175059952038369</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>368</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.1162790697674419</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1896,47 +1875,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>190</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.1009615384615385</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>374</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.06422018348623854</v>
+        <v>0.08373205741626795</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1948,47 +1927,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>306</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.05823068309070549</v>
+        <v>0.07384615384615385</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>841</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.05349794238683128</v>
+        <v>0.0732519422863485</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2000,47 +1979,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>460</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.04776579352850539</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>618</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.04439511653718091</v>
+        <v>0.0592841163310962</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2052,125 +2031,125 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.03937823834196891</v>
+        <v>0.05538461538461539</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>927</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.03891233005157056</v>
+        <v>0.04355971896955504</v>
       </c>
       <c r="L49">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M49">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="N49">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="O49">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2050</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.03352601156069364</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.03099773974814336</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L51">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>3001</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.02074330164217805</v>
+        <v>0.03104786545924968</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N52">
         <v>0.86</v>
@@ -2182,33 +2161,85 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1133</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53">
+        <v>0.03102378490175801</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>31</v>
+      </c>
+      <c r="N53">
+        <v>0.97</v>
+      </c>
+      <c r="O53">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K53">
-        <v>0.02036979003447195</v>
-      </c>
-      <c r="L53">
-        <v>65</v>
-      </c>
-      <c r="M53">
-        <v>75</v>
-      </c>
-      <c r="N53">
-        <v>0.87</v>
-      </c>
-      <c r="O53">
-        <v>0.13</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3126</v>
+      <c r="K54">
+        <v>0.01984469370146678</v>
+      </c>
+      <c r="L54">
+        <v>23</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>0.92</v>
+      </c>
+      <c r="O54">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>0.01848950172359762</v>
+      </c>
+      <c r="L55">
+        <v>59</v>
+      </c>
+      <c r="M55">
+        <v>69</v>
+      </c>
+      <c r="N55">
+        <v>0.86</v>
+      </c>
+      <c r="O55">
+        <v>0.14</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3132</v>
       </c>
     </row>
   </sheetData>
